--- a/backlog_and_teamsheet.xlsx
+++ b/backlog_and_teamsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yikanwang/Documents/Spring2021/SSW555/SSW-555-A-Project-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasir\Desktop\september\python-assignment\github\Project3\SSW-555-A-Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163FBC3A-A560-8B47-B59E-BD1720530CCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E93AF6-D0E2-45E5-95AA-743C8B5F12DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -395,6 +395,21 @@
   </si>
   <si>
     <t>mujiuzhou-007</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living married people </t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>sibling count</t>
   </si>
 </sst>
 </file>
@@ -405,7 +420,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,17 +797,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -826,7 +841,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -843,7 +858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -860,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -877,7 +892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,20 +914,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -929,7 +944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -946,7 +961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -963,7 +978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -980,7 +995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -997,7 +1012,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1014,7 +1029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1063,6 +1078,40 @@
       </c>
       <c r="E9" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1080,14 +1129,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1107,13 +1156,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>44259</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="5"/>
       <c r="F3" s="6"/>
     </row>
@@ -1127,24 +1176,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423B761-4644-4B14-9E93-F056AD5F843E}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="41.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1205,10 +1254,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1222,7 +1271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1236,7 +1285,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1248,10 +1297,10 @@
       </c>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1274,10 +1323,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1291,7 +1340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1302,7 +1351,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1313,7 +1362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1342,7 +1391,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -1371,7 +1420,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -1400,7 +1449,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1429,7 +1478,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1458,7 +1507,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1487,7 +1536,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1507,7 +1556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1527,7 +1576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
         <v>20</v>
       </c>
@@ -1548,7 +1597,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1557,7 +1606,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
         <v>80</v>
       </c>
@@ -1574,7 +1623,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
         <v>81</v>
       </c>
@@ -1591,7 +1640,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="12" t="s">
         <v>81</v>
       </c>
@@ -1606,7 +1655,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1615,7 +1664,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="12" t="s">
         <v>37</v>
       </c>
@@ -1636,7 +1685,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1645,7 +1694,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="12" t="s">
         <v>96</v>
       </c>
@@ -1660,7 +1709,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="12" t="s">
         <v>98</v>
       </c>
@@ -1675,7 +1724,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="12" t="s">
         <v>99</v>
       </c>

--- a/backlog_and_teamsheet.xlsx
+++ b/backlog_and_teamsheet.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasir\Desktop\september\python-assignment\github\Project3\SSW-555-A-Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E93AF6-D0E2-45E5-95AA-743C8B5F12DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B69D593-DE61-4C31-83FE-F62DC391BCBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
     <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="6" r:id="rId3"/>
     <sheet name="Sprint1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -118,309 +118,327 @@
     <t>Birth before marriage</t>
   </si>
   <si>
+    <t>Est Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>US01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>hyz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>myl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ykw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yikan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muyang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>hyz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Store read file date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store current date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare read date and current date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare birth date and marriage date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkong11@stevens.edu</t>
+  </si>
+  <si>
+    <t>konglingwengit</t>
+  </si>
+  <si>
+    <t>lwk</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Compare to current date</t>
+  </si>
+  <si>
+    <t>T029.01</t>
+  </si>
+  <si>
+    <t>Check DEAT status</t>
+  </si>
+  <si>
+    <t>Append object on list</t>
+  </si>
+  <si>
+    <t>T029.02</t>
+  </si>
+  <si>
+    <t>Check marriage if before 14</t>
+  </si>
+  <si>
+    <t>check if marry twice at same time</t>
+  </si>
+  <si>
+    <t>WYK</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>myl</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+  </si>
+  <si>
+    <t>Compare to birth date and death date</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>Cpmpare to divorce date and death date</t>
+  </si>
+  <si>
+    <t>ywang463@stevens.edu</t>
+  </si>
+  <si>
+    <t>Xander Wang</t>
+  </si>
+  <si>
+    <t>mli89@stevens.edu</t>
+  </si>
+  <si>
+    <t>mujiuzhou-007</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living married people </t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>sibling count</t>
+  </si>
+  <si>
+    <t>Keep updating repository with new work</t>
+  </si>
+  <si>
+    <t>Try not to use old versions of github to add new functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getting all birth date </t>
+  </si>
+  <si>
+    <t>T30.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning </t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>US01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>hyz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>myl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ykw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yikan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muyang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>hyz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Store read file date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store current date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare read date and current date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth date and marriage date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lkong11@stevens.edu</t>
-  </si>
-  <si>
-    <t>konglingwengit</t>
-  </si>
-  <si>
-    <t>lwk</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Compare to current date</t>
-  </si>
-  <si>
-    <t>T029.01</t>
-  </si>
-  <si>
-    <t>Check DEAT status</t>
-  </si>
-  <si>
-    <t>Append object on list</t>
-  </si>
-  <si>
-    <t>T029.02</t>
-  </si>
-  <si>
-    <t>Check marriage if before 14</t>
-  </si>
-  <si>
-    <t>check if marry twice at same time</t>
-  </si>
-  <si>
-    <t>WYK</t>
-  </si>
-  <si>
-    <t>coding</t>
-  </si>
-  <si>
-    <t>myl</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>Compare to birth date and death date</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t>Cpmpare to divorce date and death date</t>
-  </si>
-  <si>
-    <t>ywang463@stevens.edu</t>
-  </si>
-  <si>
-    <t>Xander Wang</t>
-  </si>
-  <si>
-    <t>mli89@stevens.edu</t>
-  </si>
-  <si>
-    <t>mujiuzhou-007</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people </t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>sibling count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Actual minutes spend on</t>
+  </si>
+  <si>
+    <t>Please don't enter act time in stories steps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +487,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -487,18 +531,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -514,10 +556,33 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0806C502-5B25-4AE5-A7E3-7A9818F2DFE2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -530,6 +595,168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-233E-4A21-A2C3-4CEB1D453204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-467596544"/>
+        <c:axId val="-467594224"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-467596544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]mmmm\ d\,\ yyyy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-467594224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-467594224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-467596544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>948267</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397934</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA90B152-AF37-4079-8F92-B57AE2E7100F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,19 +1053,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -852,10 +1079,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,19 +1104,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>103</v>
+        <v>49</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -916,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -949,16 +1176,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -966,16 +1193,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -989,10 +1216,10 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1000,16 +1227,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1017,16 +1244,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1034,16 +1261,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1051,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1068,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1085,16 +1312,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1102,16 +1329,16 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1122,74 +1349,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928824D9-C089-491C-B630-2F31746E0C4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEA54D-8B1B-4FEB-853D-AFC0FFCF51CD}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="12.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
+    <row r="1" spans="1:6" s="19" customFormat="1">
+      <c r="A1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="22">
         <v>44259</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="B2" s="17">
+        <v>42</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="22">
+        <v>44273</v>
+      </c>
+      <c r="B3" s="17">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17">
+        <f>B2-B3</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="17">
+        <f>295+35</f>
+        <v>330</v>
+      </c>
+      <c r="E3" s="17">
+        <v>180</v>
+      </c>
+      <c r="F3" s="18">
+        <f>(D3-D2)/E3*60</f>
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423B761-4644-4B14-9E93-F056AD5F843E}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1197,7 +1453,7 @@
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1206,34 +1462,34 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1247,71 +1503,83 @@
       <c r="H2">
         <v>70</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>44258</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="K2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>51</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>71</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="M7" s="10"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1319,61 +1587,79 @@
       <c r="F8">
         <v>60</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="K8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="M9" s="10"/>
+      <c r="K9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="K13" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1387,22 +1673,28 @@
       <c r="H14">
         <v>50</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="8">
         <v>44258</v>
       </c>
+      <c r="K14" s="11">
+        <f>SUM(H:H)</f>
+        <v>180</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1413,25 +1705,22 @@
       <c r="G16">
         <v>45</v>
       </c>
-      <c r="H16">
-        <v>25</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="I16" s="8">
         <v>44258</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -1442,25 +1731,22 @@
       <c r="G17">
         <v>50</v>
       </c>
-      <c r="H17">
-        <v>25</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="I17" s="8">
         <v>44258</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1474,22 +1760,22 @@
       <c r="H19">
         <v>60</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <v>44258</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -1500,25 +1786,22 @@
       <c r="G21">
         <v>45</v>
       </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>44258</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -1529,25 +1812,22 @@
       <c r="G22">
         <v>45</v>
       </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>44258</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -1558,16 +1838,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -1577,169 +1857,244 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="9">
+        <v>100</v>
+      </c>
+      <c r="F28" s="9">
+        <v>60</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="9">
+        <v>150</v>
+      </c>
+      <c r="F34" s="9">
+        <v>80</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="B37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40">
         <v>100</v>
       </c>
-      <c r="F28" s="12">
-        <v>60</v>
-      </c>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="12" t="s">
+      <c r="F40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
         <v>80</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="12">
-        <v>150</v>
-      </c>
-      <c r="F34" s="12">
-        <v>80</v>
-      </c>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backlog_and_teamsheet.xlsx
+++ b/backlog_and_teamsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasir\Desktop\september\python-assignment\github\Project3\SSW-555-A-Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B69D593-DE61-4C31-83FE-F62DC391BCBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7597D-27A0-4BB3-A1F3-ED2F802F422B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -427,16 +427,18 @@
   </si>
   <si>
     <t>Please don't enter act time in stories steps</t>
+  </si>
+  <si>
+    <t>Our speed is slow but we are hopeful to complete all stories soon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m/d"/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -536,48 +538,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1112,7 +1113,7 @@
       <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E5" t="s">
@@ -1352,71 +1353,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEA54D-8B1B-4FEB-853D-AFC0FFCF51CD}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="12.5703125" style="17"/>
+    <col min="1" max="1" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22">
+      <c r="A2" s="13">
         <v>44259</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="8">
         <v>42</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22">
+      <c r="A3" s="13">
         <v>44273</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="8">
         <v>38</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="8">
         <f>B2-B3</f>
         <v>4</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="8">
         <f>295+35</f>
         <v>330</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="8">
         <v>180</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
         <v>110</v>
       </c>
@@ -1432,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423B761-4644-4B14-9E93-F056AD5F843E}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1445,7 +1446,7 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1453,7 +1454,7 @@
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1462,19 +1463,19 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1498,75 +1499,77 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>70</v>
       </c>
-      <c r="I2" s="3">
-        <v>44258</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="21">
+        <v>44272</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -1587,6 +1590,12 @@
       <c r="F8">
         <v>60</v>
       </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="I8" s="21">
+        <v>44272</v>
+      </c>
       <c r="K8" s="15" t="s">
         <v>59</v>
       </c>
@@ -1604,7 +1613,7 @@
       <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="s">
@@ -1623,7 +1632,7 @@
       <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C11" t="s">
@@ -1634,7 +1643,7 @@
       <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C12" t="s">
@@ -1652,7 +1661,7 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
@@ -1668,26 +1677,26 @@
         <v>70</v>
       </c>
       <c r="G14">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>50</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="21">
         <v>44258</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="16">
         <f>SUM(H:H)</f>
         <v>180</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C16" t="s">
@@ -1695,18 +1704,6 @@
       </c>
       <c r="D16" t="s">
         <v>68</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>45</v>
-      </c>
-      <c r="I16" s="8">
-        <v>44258</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1722,18 +1719,6 @@
       <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="I17" s="8">
-        <v>44258</v>
-      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
@@ -1755,12 +1740,12 @@
         <v>70</v>
       </c>
       <c r="G19">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <v>60</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="21">
         <v>44258</v>
       </c>
     </row>
@@ -1777,18 +1762,6 @@
       <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="E21">
-        <v>50</v>
-      </c>
-      <c r="F21">
-        <v>30</v>
-      </c>
-      <c r="G21">
-        <v>45</v>
-      </c>
-      <c r="I21" s="8">
-        <v>44258</v>
-      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -1803,18 +1776,6 @@
       <c r="D22" t="s">
         <v>68</v>
       </c>
-      <c r="E22">
-        <v>50</v>
-      </c>
-      <c r="F22">
-        <v>40</v>
-      </c>
-      <c r="G22">
-        <v>45</v>
-      </c>
-      <c r="I22" s="8">
-        <v>44258</v>
-      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -1857,170 +1818,170 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>100</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>60</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>150</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="6">
         <v>80</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B40" t="s">
@@ -2040,7 +2001,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B42" t="s">
@@ -2071,7 +2032,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B47" t="s">
@@ -2097,5 +2058,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>